--- a/exemplo.xlsx
+++ b/exemplo.xlsx
@@ -1,42 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="EstaPastaDeTrabalho"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9EA808-31DD-4D9D-B03A-597556987767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="33045" yWindow="3930" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REQUISIÇÕES PENDENTES" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="REQUISIÇÕES PENDENTES" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>REQUISIÇÃO</t>
+  </si>
+  <si>
+    <t>DATA ABERTURA</t>
+  </si>
+  <si>
+    <t>CNPJ FORNECEDOR</t>
+  </si>
+  <si>
+    <t>NÚMERO PRÉ-PEDIDO</t>
+  </si>
+  <si>
+    <t>PRÉ-PEDIDO</t>
+  </si>
+  <si>
+    <t>PEDIDO</t>
+  </si>
+  <si>
+    <t>SHAREPOINT</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000\-00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
       <name val="Open Sans"/>
       <family val="2"/>
-      <b val="1"/>
-      <i val="1"/>
-      <sz val="9"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,45 +101,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
     <dxf>
       <font>
-        <name val="Open Sans"/>
-        <family val="2"/>
-        <b val="1"/>
-        <i val="1"/>
-        <color auto="1"/>
-        <sz val="9"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000\-00"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -110,6 +135,18 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="9" tint="-0.499984740745262"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -127,11 +164,26 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Open Sans"/>
+        <family val="2"/>
+      </font>
       <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000\-00"/>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000\-00"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
@@ -153,98 +205,34 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
+    <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:I2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="NF" dataDxfId="9"/>
-    <tableColumn id="2" name="REQUISIÇÃO" dataDxfId="1"/>
-    <tableColumn id="8" name="DATA ABERTURA" dataDxfId="8"/>
-    <tableColumn id="7" name="CNPJ FORNECEDOR" dataDxfId="7">
-      <calculatedColumnFormula>_xlfn.XLOOKUP($E2,#REF!,#REF!)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" name="NÚMERO PRÉ-PEDIDO" dataDxfId="0"/>
-    <tableColumn id="3" name="PRÉ-PEDIDO" dataDxfId="6"/>
-    <tableColumn id="4" name="PEDIDO" dataDxfId="5"/>
-    <tableColumn id="5" name="SHAREPOINT" dataDxfId="4"/>
-    <tableColumn id="6" name="STATUS" dataDxfId="3">
-      <calculatedColumnFormula>IF(E2="","",IF(AND(E2&lt;&gt;"",F2&lt;&gt;"",G2&lt;&gt;"",H2&lt;&gt;""),"Ok","Pendente"))</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NF" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="REQUISIÇÃO" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DATA ABERTURA" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CNPJ FORNECEDOR" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NÚMERO PRÉ-PEDIDO" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRÉ-PEDIDO" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PEDIDO" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SHAREPOINT" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="STATUS" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -546,133 +534,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Planilha3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="13.7109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="17.7109375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="17.7109375" customWidth="1" style="3" min="3" max="3"/>
-    <col width="17.7109375" customWidth="1" style="2" min="4" max="4"/>
-    <col width="25.28515625" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
-    <col width="19.140625" customWidth="1" style="3" min="6" max="6"/>
-    <col width="14.140625" customWidth="1" style="1" min="7" max="7"/>
-    <col width="19.7109375" customWidth="1" style="3" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NF</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>REQUISIÇÃO</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>DATA ABERTURA</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>CNPJ FORNECEDOR</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>NÚMERO PRÉ-PEDIDO</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>PRÉ-PEDIDO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PEDIDO</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
-          <t>SHAREPOINT</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="J1" s="4" t="n"/>
-      <c r="K1" s="4" t="n"/>
-      <c r="L1" s="4" t="n"/>
-      <c r="M1" s="4" t="n"/>
-      <c r="N1" s="4" t="n"/>
-      <c r="O1" s="4" t="n"/>
-      <c r="P1" s="4" t="n"/>
-      <c r="Q1" s="4" t="n"/>
-      <c r="R1" s="4" t="n"/>
-      <c r="S1" s="4" t="n"/>
-      <c r="T1" s="4" t="n"/>
-      <c r="U1" s="4" t="n"/>
-      <c r="V1" s="4" t="n"/>
-      <c r="W1" s="4" t="n"/>
-      <c r="X1" s="4" t="n"/>
-      <c r="Y1" s="4" t="n"/>
-      <c r="Z1" s="4" t="n"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="1" t="n">
-        <v>56400294</v>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>05917486000140</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="n"/>
-      <c r="I2" s="1" t="str"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="4" t="n"/>
-      <c r="Q2" s="4" t="n"/>
-      <c r="R2" s="4" t="n"/>
-      <c r="S2" s="4" t="n"/>
-      <c r="T2" s="4" t="n"/>
-      <c r="U2" s="4" t="n"/>
-      <c r="V2" s="4" t="n"/>
-      <c r="W2" s="4" t="n"/>
-      <c r="X2" s="4" t="n"/>
-      <c r="Y2" s="4" t="n"/>
-      <c r="Z2" s="4" t="n"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>56499435</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44848</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5917486000140</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>56499357</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44848</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5917486000140</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>56499253</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44848</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5917486000140</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>56499218</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44848</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5917486000140</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>56498945</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44848</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5917486000140</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2 C2:I2">
-    <cfRule type="expression" priority="1" dxfId="2">
+  <conditionalFormatting sqref="A2:A6 C2:C6 E2:I6">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$I2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/exemplo.xlsx
+++ b/exemplo.xlsx
@@ -1,83 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
-  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9EA808-31DD-4D9D-B03A-597556987767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <bookViews>
-    <workbookView xWindow="33045" yWindow="3930" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="REQUISIÇÕES PENDENTES" sheetId="1" r:id="rId1"/>
+    <sheet name="REQUISIÇÕES PENDENTES" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t>REQUISIÇÃO</t>
-  </si>
-  <si>
-    <t>DATA ABERTURA</t>
-  </si>
-  <si>
-    <t>CNPJ FORNECEDOR</t>
-  </si>
-  <si>
-    <t>NÚMERO PRÉ-PEDIDO</t>
-  </si>
-  <si>
-    <t>PRÉ-PEDIDO</t>
-  </si>
-  <si>
-    <t>PEDIDO</t>
-  </si>
-  <si>
-    <t>SHAREPOINT</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Pendente</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000\-00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,29 +53,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
     <dxf>
       <font>
-        <b/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Open Sans"/>
+        <family val="2"/>
+        <b val="1"/>
+        <i val="1"/>
+        <color auto="1"/>
+        <sz val="9"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000\-00"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000\-00"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -132,65 +128,6 @@
           <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="9" tint="-0.499984740745262"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Open Sans"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000\-00"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="00&quot;.&quot;000&quot;.&quot;000&quot;/&quot;0000\-00"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
@@ -205,34 +142,94 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
+    <tableStyle name="Estilo de Segmentação de Dados 1" pivot="0" table="0" count="1">
+      <tableStyleElement type="wholeTable" dxfId="11"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:I6" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:I6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:I2" headerRowCount="1" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NF" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="REQUISIÇÃO" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="DATA ABERTURA" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CNPJ FORNECEDOR" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NÚMERO PRÉ-PEDIDO" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRÉ-PEDIDO" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PEDIDO" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SHAREPOINT" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="STATUS" dataDxfId="2"/>
+    <tableColumn id="1" name="NF" dataDxfId="8"/>
+    <tableColumn id="2" name="REQUISIÇÃO" dataDxfId="7"/>
+    <tableColumn id="8" name="DATA ABERTURA" dataDxfId="6"/>
+    <tableColumn id="7" name="CNPJ FORNECEDOR" dataDxfId="5"/>
+    <tableColumn id="9" name="NÚMERO PRÉ-PEDIDO" dataDxfId="4"/>
+    <tableColumn id="3" name="PRÉ-PEDIDO" dataDxfId="3"/>
+    <tableColumn id="4" name="PEDIDO" dataDxfId="2"/>
+    <tableColumn id="5" name="SHAREPOINT" dataDxfId="1"/>
+    <tableColumn id="6" name="STATUS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -534,172 +531,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:Z6"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Planilha3">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col width="13.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="17.7109375" customWidth="1" style="1" min="2" max="2"/>
+    <col width="17.7109375" customWidth="1" style="3" min="3" max="3"/>
+    <col width="29.42578125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="25.28515625" bestFit="1" customWidth="1" style="2" min="5" max="5"/>
+    <col width="19.140625" customWidth="1" style="3" min="6" max="6"/>
+    <col width="14.140625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="19.7109375" customWidth="1" style="3" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NF</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>REQUISIÇÃO</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>DATA ABERTURA</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CNPJ FORNECEDOR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>NÚMERO PRÉ-PEDIDO</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>PRÉ-PEDIDO</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PEDIDO</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>SHAREPOINT</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="n"/>
+      <c r="K1" s="4" t="n"/>
+      <c r="L1" s="4" t="n"/>
+      <c r="M1" s="4" t="n"/>
+      <c r="N1" s="4" t="n"/>
+      <c r="O1" s="4" t="n"/>
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="4" t="n"/>
+      <c r="R1" s="4" t="n"/>
+      <c r="S1" s="4" t="n"/>
+      <c r="T1" s="4" t="n"/>
+      <c r="U1" s="4" t="n"/>
+      <c r="V1" s="4" t="n"/>
+      <c r="W1" s="4" t="n"/>
+      <c r="X1" s="4" t="n"/>
+      <c r="Y1" s="4" t="n"/>
+      <c r="Z1" s="4" t="n"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
+    <row r="2">
+      <c r="B2" s="1" t="n">
         <v>56499435</v>
       </c>
-      <c r="C2" s="3">
-        <v>44848</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5917486000140</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>56499357</v>
-      </c>
-      <c r="C3" s="3">
-        <v>44848</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5917486000140</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>56499253</v>
-      </c>
-      <c r="C4" s="3">
-        <v>44848</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5917486000140</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>56499218</v>
-      </c>
-      <c r="C5" s="3">
-        <v>44848</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5917486000140</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="I5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>56498945</v>
-      </c>
-      <c r="C6" s="3">
-        <v>44848</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5917486000140</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C2" s="3" t="n">
+        <v>44838</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>4985717000190</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>41925207</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>05/10/2022</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>50537</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="4" t="n"/>
+      <c r="R2" s="4" t="n"/>
+      <c r="S2" s="4" t="n"/>
+      <c r="T2" s="4" t="n"/>
+      <c r="U2" s="4" t="n"/>
+      <c r="V2" s="4" t="n"/>
+      <c r="W2" s="4" t="n"/>
+      <c r="X2" s="4" t="n"/>
+      <c r="Y2" s="4" t="n"/>
+      <c r="Z2" s="4" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A6 C2:C6 E2:I6">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="A2 C2 E2:I2">
+    <cfRule type="expression" priority="1" dxfId="10">
       <formula>$I2="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
